--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_VNPT.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_VNPT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="35" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -688,6 +688,30 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,31 +724,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1066,43 +1066,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="59"/>
@@ -1147,58 +1147,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1223,23 +1223,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1328,7 +1328,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1504,7 +1504,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2822,6 +2822,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2833,13 +2840,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2850,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2883,43 +2883,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="59"/>
@@ -2964,58 +2964,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3040,23 +3040,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3349,7 +3349,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3407,7 +3407,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4667,13 +4667,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4685,6 +4678,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4695,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4728,43 +4728,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4809,58 +4809,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4885,49 +4885,81 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="B6" s="37">
+        <v>44386</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="39">
+        <v>861694031101072</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>83</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4939,26 +4971,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
+      <c r="B7" s="37">
+        <v>44386</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183034624465</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4968,26 +5028,58 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="B8" s="37">
+        <v>44386</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183034603352</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5016,7 +5108,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5045,7 +5137,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5074,7 +5166,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5103,7 +5195,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5134,7 +5226,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5163,7 +5255,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5192,7 +5284,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5221,7 +5313,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5340,7 +5432,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5372,7 +5464,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5404,7 +5496,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5681,7 +5773,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5809,7 +5901,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5841,7 +5933,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -5873,7 +5965,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -5991,7 +6083,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6452,13 +6544,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6470,6 +6555,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
